--- a/tests/sales.xlsx
+++ b/tests/sales.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="1" r:id="rId1"/>
-    <sheet name="dummy" sheetId="2" r:id="rId2"/>
+    <sheet name="dates" sheetId="3" r:id="rId2"/>
+    <sheet name="dummy" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>product</t>
   </si>
@@ -79,6 +80,9 @@
   </si>
   <si>
     <t>This is a help sheet</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -88,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,12 +137,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -879,6 +893,359 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43101</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>43102</v>
+      </c>
+      <c r="B3">
+        <f>B2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A34" si="0">A3+1</f>
+        <v>43103</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B34" si="1">B3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>43104</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>43105</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>43106</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>43107</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>43108</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>43109</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>43110</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>43111</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>43112</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>43113</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>43114</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>43115</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>43116</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>43117</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>43118</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>43119</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>43120</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>43121</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>43122</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>43123</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>43124</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>43125</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>43126</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>43127</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>43128</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>43129</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>43130</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>43131</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>43132</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>43133</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/tests/sales.xlsx
+++ b/tests/sales.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\site\gramener.com\viz\async-gramex\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2949249D-7F82-4C43-8ADF-D9A5E7CF682F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948605C7-75F2-4DE7-A076-8D7742DEEC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="960" windowWidth="20320" windowHeight="16540" activeTab="3" xr2:uid="{6EE3D399-FAD5-3F44-9EB5-0B167948DCE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EE3D399-FAD5-3F44-9EB5-0B167948DCE0}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="1" r:id="rId1"/>
     <sheet name="dates" sheetId="2" r:id="rId2"/>
     <sheet name="census" sheetId="3" r:id="rId3"/>
-    <sheet name="dummy" sheetId="4" r:id="rId4"/>
+    <sheet name="table" sheetId="5" r:id="rId4"/>
+    <sheet name="dummy" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="census" localSheetId="2">census!$A$1:$C$641</definedName>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1317">
   <si>
     <t>देश</t>
   </si>
@@ -4067,7 +4068,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4090,6 +4095,29 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="census" connectionId="1" xr16:uid="{C2D79422-4AEE-F94D-BBED-242113438F3F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DE0A409-10DC-456E-8AF7-9873F35CDF91}" name="SalesTable" displayName="SalesTable" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{C18C4BB5-C622-4835-A037-4251950D4044}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EE3D22A8-3E87-4843-ACD2-83368FAC70E2}" name="date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D1A44936-8580-4962-B88E-898F3FB4C70E}" name="sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9463F6F3-ECA7-48FB-858F-532D1296CCB7}" name="CensusTable" displayName="CensusTable" ref="D1:F23" totalsRowShown="0">
+  <autoFilter ref="D1:F23" xr:uid="{392F5789-E7A8-4237-8280-CEC4420BF473}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A5F73EF8-4814-419F-8434-EF234D1DE6CC}" name="State"/>
+    <tableColumn id="2" xr3:uid="{7F6E1914-BFE5-4E80-BE05-DD65E9A997D1}" name="District"/>
+    <tableColumn id="3" xr3:uid="{A74C1237-C79F-42E2-B108-485614EAF929}" name="DistrictCaps"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4391,18 +4419,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5832FD-D67F-1D4C-95D0-0EB623A26DB3}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4419,7 +4447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4436,7 +4464,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4453,7 +4481,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4470,7 +4498,7 @@
         <v>-0.29099999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4487,7 +4515,7 @@
         <v>-0.113</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4504,7 +4532,7 @@
         <v>-0.40200000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4521,7 +4549,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4538,7 +4566,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4555,7 +4583,7 @@
         <v>-0.26100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -4572,7 +4600,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -4583,7 +4611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -4600,7 +4628,7 @@
         <v>-0.28799999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -4617,7 +4645,7 @@
         <v>-6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4634,7 +4662,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4651,7 +4679,7 @@
         <v>-0.19700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4668,7 +4696,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4685,7 +4713,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -4702,7 +4730,7 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -4719,7 +4747,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -4736,7 +4764,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4753,7 +4781,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -4770,7 +4798,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -4787,7 +4815,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -4804,7 +4832,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -4826,13 +4854,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4840,7 +4868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43101</v>
       </c>
@@ -4848,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43102</v>
       </c>
@@ -4856,7 +4884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43103</v>
       </c>
@@ -4864,7 +4892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43104</v>
       </c>
@@ -4872,7 +4900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43105</v>
       </c>
@@ -4880,7 +4908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43106</v>
       </c>
@@ -4888,7 +4916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43107</v>
       </c>
@@ -4896,7 +4924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43108</v>
       </c>
@@ -4904,7 +4932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43109</v>
       </c>
@@ -4912,7 +4940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43110</v>
       </c>
@@ -4920,7 +4948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43111</v>
       </c>
@@ -4928,7 +4956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43112</v>
       </c>
@@ -4936,7 +4964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43113</v>
       </c>
@@ -4944,7 +4972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43114</v>
       </c>
@@ -4952,7 +4980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43115</v>
       </c>
@@ -4960,7 +4988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43116</v>
       </c>
@@ -4968,7 +4996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43117</v>
       </c>
@@ -4976,7 +5004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43118</v>
       </c>
@@ -4984,7 +5012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43119</v>
       </c>
@@ -4992,7 +5020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43120</v>
       </c>
@@ -5000,7 +5028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43121</v>
       </c>
@@ -5008,7 +5036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43122</v>
       </c>
@@ -5016,7 +5044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43123</v>
       </c>
@@ -5024,7 +5052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43124</v>
       </c>
@@ -5032,7 +5060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43125</v>
       </c>
@@ -5040,7 +5068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43126</v>
       </c>
@@ -5048,7 +5076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43127</v>
       </c>
@@ -5056,7 +5084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43128</v>
       </c>
@@ -5064,7 +5092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43129</v>
       </c>
@@ -5072,7 +5100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43130</v>
       </c>
@@ -5080,7 +5108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43131</v>
       </c>
@@ -5088,7 +5116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43132</v>
       </c>
@@ -5096,7 +5124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43133</v>
       </c>
@@ -5115,14 +5143,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5133,7 +5161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -5144,7 +5172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5155,7 +5183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5166,7 +5194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5177,7 +5205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5188,7 +5216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -5199,7 +5227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5210,7 +5238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5221,7 +5249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5232,7 +5260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5243,7 +5271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5254,7 +5282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5265,7 +5293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5276,7 +5304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5287,7 +5315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5298,7 +5326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -5309,7 +5337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -5320,7 +5348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -5331,7 +5359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5342,7 +5370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -5353,7 +5381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5364,7 +5392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5375,7 +5403,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -5386,7 +5414,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -5397,7 +5425,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -5408,7 +5436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -5419,7 +5447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -5430,7 +5458,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5441,7 +5469,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -5452,7 +5480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -5463,7 +5491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -5474,7 +5502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -5485,7 +5513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -5496,7 +5524,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -5507,7 +5535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -5518,7 +5546,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -5529,7 +5557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -5540,7 +5568,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -5551,7 +5579,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -5562,7 +5590,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -5573,7 +5601,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -5584,7 +5612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -5595,7 +5623,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -5606,7 +5634,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -5617,7 +5645,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5628,7 +5656,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -5639,7 +5667,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -5650,7 +5678,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -5661,7 +5689,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -5672,7 +5700,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -5683,7 +5711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -5694,7 +5722,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -5705,7 +5733,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -5716,7 +5744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -5727,7 +5755,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -5738,7 +5766,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -5749,7 +5777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -5760,7 +5788,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -5771,7 +5799,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -5782,7 +5810,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -5793,7 +5821,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -5804,7 +5832,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>134</v>
       </c>
@@ -5815,7 +5843,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -5826,7 +5854,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -5837,7 +5865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -5848,7 +5876,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>134</v>
       </c>
@@ -5859,7 +5887,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -5870,7 +5898,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -5881,7 +5909,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -5892,7 +5920,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -5903,7 +5931,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -5914,7 +5942,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -5925,7 +5953,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -5936,7 +5964,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -5947,7 +5975,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -5958,7 +5986,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -5969,7 +5997,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -5980,7 +6008,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -5991,7 +6019,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -6002,7 +6030,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6013,7 +6041,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -6024,7 +6052,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -6035,7 +6063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -6046,7 +6074,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -6057,7 +6085,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -6068,7 +6096,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -6079,7 +6107,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -6090,7 +6118,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -6101,7 +6129,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -6112,7 +6140,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -6123,7 +6151,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>204</v>
       </c>
@@ -6134,7 +6162,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>204</v>
       </c>
@@ -6145,7 +6173,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -6156,7 +6184,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -6167,7 +6195,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -6178,7 +6206,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>204</v>
       </c>
@@ -6189,7 +6217,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -6200,7 +6228,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -6211,7 +6239,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -6222,7 +6250,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>223</v>
       </c>
@@ -6233,7 +6261,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -6244,7 +6272,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>223</v>
       </c>
@@ -6255,7 +6283,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -6266,7 +6294,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -6277,7 +6305,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -6288,7 +6316,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -6299,7 +6327,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>223</v>
       </c>
@@ -6310,7 +6338,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -6321,7 +6349,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>223</v>
       </c>
@@ -6332,7 +6360,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>223</v>
       </c>
@@ -6343,7 +6371,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -6354,7 +6382,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -6365,7 +6393,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>223</v>
       </c>
@@ -6376,7 +6404,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>223</v>
       </c>
@@ -6387,7 +6415,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -6398,7 +6426,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -6409,7 +6437,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>223</v>
       </c>
@@ -6420,7 +6448,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>223</v>
       </c>
@@ -6431,7 +6459,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>223</v>
       </c>
@@ -6442,7 +6470,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>223</v>
       </c>
@@ -6453,7 +6481,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>223</v>
       </c>
@@ -6464,7 +6492,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>223</v>
       </c>
@@ -6475,7 +6503,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>223</v>
       </c>
@@ -6486,7 +6514,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>223</v>
       </c>
@@ -6497,7 +6525,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>223</v>
       </c>
@@ -6508,7 +6536,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>223</v>
       </c>
@@ -6519,7 +6547,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>223</v>
       </c>
@@ -6530,7 +6558,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>223</v>
       </c>
@@ -6541,7 +6569,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>223</v>
       </c>
@@ -6552,7 +6580,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>223</v>
       </c>
@@ -6563,7 +6591,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -6574,7 +6602,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>290</v>
       </c>
@@ -6585,7 +6613,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -6596,7 +6624,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>290</v>
       </c>
@@ -6607,7 +6635,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>290</v>
       </c>
@@ -6618,7 +6646,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -6629,7 +6657,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>290</v>
       </c>
@@ -6640,7 +6668,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>290</v>
       </c>
@@ -6651,7 +6679,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>290</v>
       </c>
@@ -6662,7 +6690,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>290</v>
       </c>
@@ -6673,7 +6701,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>290</v>
       </c>
@@ -6684,7 +6712,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>290</v>
       </c>
@@ -6695,7 +6723,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>290</v>
       </c>
@@ -6706,7 +6734,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>290</v>
       </c>
@@ -6717,7 +6745,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -6728,7 +6756,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -6739,7 +6767,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>290</v>
       </c>
@@ -6750,7 +6778,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>290</v>
       </c>
@@ -6761,7 +6789,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>290</v>
       </c>
@@ -6772,7 +6800,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>290</v>
       </c>
@@ -6783,7 +6811,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>290</v>
       </c>
@@ -6794,7 +6822,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>290</v>
       </c>
@@ -6805,7 +6833,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>290</v>
       </c>
@@ -6816,7 +6844,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>290</v>
       </c>
@@ -6827,7 +6855,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>290</v>
       </c>
@@ -6838,7 +6866,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>290</v>
       </c>
@@ -6849,7 +6877,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>290</v>
       </c>
@@ -6860,7 +6888,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>290</v>
       </c>
@@ -6871,7 +6899,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>290</v>
       </c>
@@ -6882,7 +6910,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>290</v>
       </c>
@@ -6893,7 +6921,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>290</v>
       </c>
@@ -6904,7 +6932,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>290</v>
       </c>
@@ -6915,7 +6943,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>290</v>
       </c>
@@ -6926,7 +6954,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>290</v>
       </c>
@@ -6937,7 +6965,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>290</v>
       </c>
@@ -6948,7 +6976,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>290</v>
       </c>
@@ -6959,7 +6987,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -6970,7 +6998,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>290</v>
       </c>
@@ -6981,7 +7009,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>290</v>
       </c>
@@ -6992,7 +7020,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>290</v>
       </c>
@@ -7003,7 +7031,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>290</v>
       </c>
@@ -7014,7 +7042,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>290</v>
       </c>
@@ -7025,7 +7053,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>290</v>
       </c>
@@ -7036,7 +7064,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>290</v>
       </c>
@@ -7047,7 +7075,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>290</v>
       </c>
@@ -7058,7 +7086,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>290</v>
       </c>
@@ -7069,7 +7097,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>290</v>
       </c>
@@ -7080,7 +7108,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>290</v>
       </c>
@@ -7091,7 +7119,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>290</v>
       </c>
@@ -7102,7 +7130,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>290</v>
       </c>
@@ -7113,7 +7141,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>290</v>
       </c>
@@ -7124,7 +7152,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>290</v>
       </c>
@@ -7135,7 +7163,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>290</v>
       </c>
@@ -7146,7 +7174,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>290</v>
       </c>
@@ -7157,7 +7185,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>290</v>
       </c>
@@ -7168,7 +7196,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>290</v>
       </c>
@@ -7179,7 +7207,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>290</v>
       </c>
@@ -7190,7 +7218,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>290</v>
       </c>
@@ -7201,7 +7229,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>290</v>
       </c>
@@ -7212,7 +7240,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>290</v>
       </c>
@@ -7223,7 +7251,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>290</v>
       </c>
@@ -7234,7 +7262,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>290</v>
       </c>
@@ -7245,7 +7273,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>290</v>
       </c>
@@ -7256,7 +7284,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>290</v>
       </c>
@@ -7267,7 +7295,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>290</v>
       </c>
@@ -7278,7 +7306,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>290</v>
       </c>
@@ -7289,7 +7317,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>290</v>
       </c>
@@ -7300,7 +7328,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>290</v>
       </c>
@@ -7311,7 +7339,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>290</v>
       </c>
@@ -7322,7 +7350,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>290</v>
       </c>
@@ -7333,7 +7361,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>290</v>
       </c>
@@ -7344,7 +7372,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>290</v>
       </c>
@@ -7355,7 +7383,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>429</v>
       </c>
@@ -7366,7 +7394,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>429</v>
       </c>
@@ -7377,7 +7405,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>429</v>
       </c>
@@ -7388,7 +7416,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>429</v>
       </c>
@@ -7399,7 +7427,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>429</v>
       </c>
@@ -7410,7 +7438,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>429</v>
       </c>
@@ -7421,7 +7449,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>429</v>
       </c>
@@ -7432,7 +7460,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>429</v>
       </c>
@@ -7443,7 +7471,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>429</v>
       </c>
@@ -7454,7 +7482,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>429</v>
       </c>
@@ -7465,7 +7493,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>429</v>
       </c>
@@ -7476,7 +7504,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -7487,7 +7515,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -7498,7 +7526,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>429</v>
       </c>
@@ -7509,7 +7537,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>429</v>
       </c>
@@ -7520,7 +7548,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>429</v>
       </c>
@@ -7531,7 +7559,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>429</v>
       </c>
@@ -7542,7 +7570,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>429</v>
       </c>
@@ -7553,7 +7581,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>429</v>
       </c>
@@ -7564,7 +7592,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>429</v>
       </c>
@@ -7575,7 +7603,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>429</v>
       </c>
@@ -7586,7 +7614,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>429</v>
       </c>
@@ -7597,7 +7625,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>429</v>
       </c>
@@ -7608,7 +7636,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>429</v>
       </c>
@@ -7619,7 +7647,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>429</v>
       </c>
@@ -7630,7 +7658,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>429</v>
       </c>
@@ -7641,7 +7669,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>429</v>
       </c>
@@ -7652,7 +7680,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>429</v>
       </c>
@@ -7663,7 +7691,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>429</v>
       </c>
@@ -7674,7 +7702,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>429</v>
       </c>
@@ -7685,7 +7713,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>429</v>
       </c>
@@ -7696,7 +7724,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>429</v>
       </c>
@@ -7707,7 +7735,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>429</v>
       </c>
@@ -7718,7 +7746,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>429</v>
       </c>
@@ -7729,7 +7757,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>429</v>
       </c>
@@ -7740,7 +7768,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>429</v>
       </c>
@@ -7751,7 +7779,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>429</v>
       </c>
@@ -7762,7 +7790,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>429</v>
       </c>
@@ -7773,7 +7801,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>506</v>
       </c>
@@ -7784,7 +7812,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>506</v>
       </c>
@@ -7795,7 +7823,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>506</v>
       </c>
@@ -7806,7 +7834,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>506</v>
       </c>
@@ -7817,7 +7845,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>515</v>
       </c>
@@ -7828,7 +7856,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>515</v>
       </c>
@@ -7839,7 +7867,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>515</v>
       </c>
@@ -7850,7 +7878,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>515</v>
       </c>
@@ -7861,7 +7889,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>515</v>
       </c>
@@ -7872,7 +7900,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>515</v>
       </c>
@@ -7883,7 +7911,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>515</v>
       </c>
@@ -7894,7 +7922,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>515</v>
       </c>
@@ -7905,7 +7933,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>515</v>
       </c>
@@ -7916,7 +7944,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>515</v>
       </c>
@@ -7927,7 +7955,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>515</v>
       </c>
@@ -7938,7 +7966,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>515</v>
       </c>
@@ -7949,7 +7977,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>515</v>
       </c>
@@ -7960,7 +7988,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>515</v>
       </c>
@@ -7971,7 +7999,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>515</v>
       </c>
@@ -7982,7 +8010,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>515</v>
       </c>
@@ -7993,7 +8021,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>548</v>
       </c>
@@ -8004,7 +8032,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>548</v>
       </c>
@@ -8015,7 +8043,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>548</v>
       </c>
@@ -8026,7 +8054,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>548</v>
       </c>
@@ -8037,7 +8065,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>548</v>
       </c>
@@ -8048,7 +8076,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>548</v>
       </c>
@@ -8059,7 +8087,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>548</v>
       </c>
@@ -8070,7 +8098,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>548</v>
       </c>
@@ -8081,7 +8109,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>548</v>
       </c>
@@ -8092,7 +8120,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>548</v>
       </c>
@@ -8103,7 +8131,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>548</v>
       </c>
@@ -8114,7 +8142,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>571</v>
       </c>
@@ -8125,7 +8153,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>571</v>
       </c>
@@ -8136,7 +8164,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>571</v>
       </c>
@@ -8147,7 +8175,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>571</v>
       </c>
@@ -8158,7 +8186,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>571</v>
       </c>
@@ -8169,7 +8197,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>571</v>
       </c>
@@ -8180,7 +8208,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>571</v>
       </c>
@@ -8191,7 +8219,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>571</v>
       </c>
@@ -8202,7 +8230,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>571</v>
       </c>
@@ -8213,7 +8241,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>590</v>
       </c>
@@ -8224,7 +8252,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>590</v>
       </c>
@@ -8235,7 +8263,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>590</v>
       </c>
@@ -8246,7 +8274,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>590</v>
       </c>
@@ -8257,7 +8285,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>590</v>
       </c>
@@ -8268,7 +8296,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>590</v>
       </c>
@@ -8279,7 +8307,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>590</v>
       </c>
@@ -8290,7 +8318,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>590</v>
       </c>
@@ -8301,7 +8329,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>607</v>
       </c>
@@ -8312,7 +8340,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>607</v>
       </c>
@@ -8323,7 +8351,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>607</v>
       </c>
@@ -8334,7 +8362,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>607</v>
       </c>
@@ -8345,7 +8373,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>616</v>
       </c>
@@ -8356,7 +8384,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>616</v>
       </c>
@@ -8367,7 +8395,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>616</v>
       </c>
@@ -8378,7 +8406,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>616</v>
       </c>
@@ -8389,7 +8417,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>616</v>
       </c>
@@ -8400,7 +8428,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>616</v>
       </c>
@@ -8411,7 +8439,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>616</v>
       </c>
@@ -8422,7 +8450,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>631</v>
       </c>
@@ -8433,7 +8461,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>631</v>
       </c>
@@ -8444,7 +8472,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>631</v>
       </c>
@@ -8455,7 +8483,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>631</v>
       </c>
@@ -8466,7 +8494,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>631</v>
       </c>
@@ -8477,7 +8505,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>631</v>
       </c>
@@ -8488,7 +8516,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>631</v>
       </c>
@@ -8499,7 +8527,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>631</v>
       </c>
@@ -8510,7 +8538,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>631</v>
       </c>
@@ -8521,7 +8549,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>631</v>
       </c>
@@ -8532,7 +8560,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>631</v>
       </c>
@@ -8543,7 +8571,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>631</v>
       </c>
@@ -8554,7 +8582,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>631</v>
       </c>
@@ -8565,7 +8593,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>631</v>
       </c>
@@ -8576,7 +8604,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>631</v>
       </c>
@@ -8587,7 +8615,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>631</v>
       </c>
@@ -8598,7 +8626,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>631</v>
       </c>
@@ -8609,7 +8637,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>631</v>
       </c>
@@ -8620,7 +8648,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>631</v>
       </c>
@@ -8631,7 +8659,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>631</v>
       </c>
@@ -8642,7 +8670,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>631</v>
       </c>
@@ -8653,7 +8681,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>631</v>
       </c>
@@ -8664,7 +8692,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>631</v>
       </c>
@@ -8675,7 +8703,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>631</v>
       </c>
@@ -8686,7 +8714,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>631</v>
       </c>
@@ -8697,7 +8725,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>631</v>
       </c>
@@ -8708,7 +8736,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>631</v>
       </c>
@@ -8719,7 +8747,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>686</v>
       </c>
@@ -8730,7 +8758,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>686</v>
       </c>
@@ -8741,7 +8769,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>686</v>
       </c>
@@ -8752,7 +8780,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>686</v>
       </c>
@@ -8763,7 +8791,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>686</v>
       </c>
@@ -8774,7 +8802,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>686</v>
       </c>
@@ -8785,7 +8813,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>686</v>
       </c>
@@ -8796,7 +8824,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>686</v>
       </c>
@@ -8807,7 +8835,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>686</v>
       </c>
@@ -8818,7 +8846,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>686</v>
       </c>
@@ -8829,7 +8857,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>686</v>
       </c>
@@ -8840,7 +8868,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>686</v>
       </c>
@@ -8851,7 +8879,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>686</v>
       </c>
@@ -8862,7 +8890,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>686</v>
       </c>
@@ -8873,7 +8901,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>686</v>
       </c>
@@ -8884,7 +8912,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>686</v>
       </c>
@@ -8895,7 +8923,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>686</v>
       </c>
@@ -8906,7 +8934,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>686</v>
       </c>
@@ -8917,7 +8945,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>686</v>
       </c>
@@ -8928,7 +8956,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>725</v>
       </c>
@@ -8939,7 +8967,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>725</v>
       </c>
@@ -8950,7 +8978,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>725</v>
       </c>
@@ -8961,7 +8989,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>725</v>
       </c>
@@ -8972,7 +9000,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>725</v>
       </c>
@@ -8983,7 +9011,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>725</v>
       </c>
@@ -8994,7 +9022,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>725</v>
       </c>
@@ -9005,7 +9033,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>725</v>
       </c>
@@ -9016,7 +9044,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>725</v>
       </c>
@@ -9027,7 +9055,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>725</v>
       </c>
@@ -9038,7 +9066,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>725</v>
       </c>
@@ -9049,7 +9077,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>725</v>
       </c>
@@ -9060,7 +9088,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>725</v>
       </c>
@@ -9071,7 +9099,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>725</v>
       </c>
@@ -9082,7 +9110,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>725</v>
       </c>
@@ -9093,7 +9121,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>725</v>
       </c>
@@ -9104,7 +9132,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>725</v>
       </c>
@@ -9115,7 +9143,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>725</v>
       </c>
@@ -9126,7 +9154,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>725</v>
       </c>
@@ -9137,7 +9165,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>725</v>
       </c>
@@ -9148,7 +9176,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>725</v>
       </c>
@@ -9159,7 +9187,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>725</v>
       </c>
@@ -9170,7 +9198,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>725</v>
       </c>
@@ -9181,7 +9209,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>725</v>
       </c>
@@ -9192,7 +9220,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>774</v>
       </c>
@@ -9203,7 +9231,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>774</v>
       </c>
@@ -9214,7 +9242,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>774</v>
       </c>
@@ -9225,7 +9253,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>774</v>
       </c>
@@ -9236,7 +9264,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>774</v>
       </c>
@@ -9247,7 +9275,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>774</v>
       </c>
@@ -9258,7 +9286,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>774</v>
       </c>
@@ -9269,7 +9297,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>774</v>
       </c>
@@ -9280,7 +9308,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>774</v>
       </c>
@@ -9291,7 +9319,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>774</v>
       </c>
@@ -9302,7 +9330,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>774</v>
       </c>
@@ -9313,7 +9341,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>774</v>
       </c>
@@ -9324,7 +9352,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>774</v>
       </c>
@@ -9335,7 +9363,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>774</v>
       </c>
@@ -9346,7 +9374,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>774</v>
       </c>
@@ -9357,7 +9385,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>774</v>
       </c>
@@ -9368,7 +9396,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>774</v>
       </c>
@@ -9379,7 +9407,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>774</v>
       </c>
@@ -9390,7 +9418,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>774</v>
       </c>
@@ -9401,7 +9429,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>774</v>
       </c>
@@ -9412,7 +9440,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>774</v>
       </c>
@@ -9423,7 +9451,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>774</v>
       </c>
@@ -9434,7 +9462,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>774</v>
       </c>
@@ -9445,7 +9473,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>774</v>
       </c>
@@ -9456,7 +9484,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>774</v>
       </c>
@@ -9467,7 +9495,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>774</v>
       </c>
@@ -9478,7 +9506,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>774</v>
       </c>
@@ -9489,7 +9517,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>774</v>
       </c>
@@ -9500,7 +9528,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>774</v>
       </c>
@@ -9511,7 +9539,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>774</v>
       </c>
@@ -9522,7 +9550,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>835</v>
       </c>
@@ -9533,7 +9561,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>835</v>
       </c>
@@ -9544,7 +9572,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>835</v>
       </c>
@@ -9555,7 +9583,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>835</v>
       </c>
@@ -9566,7 +9594,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>835</v>
       </c>
@@ -9577,7 +9605,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>835</v>
       </c>
@@ -9588,7 +9616,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>835</v>
       </c>
@@ -9599,7 +9627,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>835</v>
       </c>
@@ -9610,7 +9638,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>835</v>
       </c>
@@ -9621,7 +9649,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>835</v>
       </c>
@@ -9632,7 +9660,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>835</v>
       </c>
@@ -9643,7 +9671,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>835</v>
       </c>
@@ -9654,7 +9682,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>835</v>
       </c>
@@ -9665,7 +9693,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>835</v>
       </c>
@@ -9676,7 +9704,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>835</v>
       </c>
@@ -9687,7 +9715,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>835</v>
       </c>
@@ -9698,7 +9726,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>835</v>
       </c>
@@ -9709,7 +9737,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>835</v>
       </c>
@@ -9720,7 +9748,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>870</v>
       </c>
@@ -9731,7 +9759,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>870</v>
       </c>
@@ -9742,7 +9770,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>870</v>
       </c>
@@ -9753,7 +9781,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>870</v>
       </c>
@@ -9764,7 +9792,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>870</v>
       </c>
@@ -9775,7 +9803,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>870</v>
       </c>
@@ -9786,7 +9814,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>870</v>
       </c>
@@ -9797,7 +9825,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>870</v>
       </c>
@@ -9808,7 +9836,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>870</v>
       </c>
@@ -9819,7 +9847,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>870</v>
       </c>
@@ -9830,7 +9858,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>870</v>
       </c>
@@ -9841,7 +9869,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>870</v>
       </c>
@@ -9852,7 +9880,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>870</v>
       </c>
@@ -9863,7 +9891,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>870</v>
       </c>
@@ -9874,7 +9902,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>870</v>
       </c>
@@ -9885,7 +9913,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>870</v>
       </c>
@@ -9896,7 +9924,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>870</v>
       </c>
@@ -9907,7 +9935,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>870</v>
       </c>
@@ -9918,7 +9946,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>870</v>
       </c>
@@ -9929,7 +9957,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>870</v>
       </c>
@@ -9940,7 +9968,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>870</v>
       </c>
@@ -9951,7 +9979,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>870</v>
       </c>
@@ -9962,7 +9990,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>870</v>
       </c>
@@ -9973,7 +10001,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>870</v>
       </c>
@@ -9984,7 +10012,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>870</v>
       </c>
@@ -9995,7 +10023,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>870</v>
       </c>
@@ -10006,7 +10034,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>870</v>
       </c>
@@ -10017,7 +10045,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>870</v>
       </c>
@@ -10028,7 +10056,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>870</v>
       </c>
@@ -10039,7 +10067,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>870</v>
       </c>
@@ -10050,7 +10078,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>870</v>
       </c>
@@ -10061,7 +10089,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>870</v>
       </c>
@@ -10072,7 +10100,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>870</v>
       </c>
@@ -10083,7 +10111,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>870</v>
       </c>
@@ -10094,7 +10122,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>870</v>
       </c>
@@ -10105,7 +10133,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>870</v>
       </c>
@@ -10116,7 +10144,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>870</v>
       </c>
@@ -10127,7 +10155,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>870</v>
       </c>
@@ -10138,7 +10166,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>870</v>
       </c>
@@ -10149,7 +10177,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>870</v>
       </c>
@@ -10160,7 +10188,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>870</v>
       </c>
@@ -10171,7 +10199,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>870</v>
       </c>
@@ -10182,7 +10210,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>870</v>
       </c>
@@ -10193,7 +10221,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>870</v>
       </c>
@@ -10204,7 +10232,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>870</v>
       </c>
@@ -10215,7 +10243,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>870</v>
       </c>
@@ -10226,7 +10254,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>870</v>
       </c>
@@ -10237,7 +10265,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>870</v>
       </c>
@@ -10248,7 +10276,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>870</v>
       </c>
@@ -10259,7 +10287,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>870</v>
       </c>
@@ -10270,7 +10298,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>971</v>
       </c>
@@ -10281,7 +10309,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>971</v>
       </c>
@@ -10292,7 +10320,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>971</v>
       </c>
@@ -10303,7 +10331,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>971</v>
       </c>
@@ -10314,7 +10342,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>971</v>
       </c>
@@ -10325,7 +10353,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>971</v>
       </c>
@@ -10336,7 +10364,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>971</v>
       </c>
@@ -10347,7 +10375,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>971</v>
       </c>
@@ -10358,7 +10386,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>971</v>
       </c>
@@ -10369,7 +10397,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>971</v>
       </c>
@@ -10380,7 +10408,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>971</v>
       </c>
@@ -10391,7 +10419,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>971</v>
       </c>
@@ -10402,7 +10430,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>971</v>
       </c>
@@ -10413,7 +10441,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>971</v>
       </c>
@@ -10424,7 +10452,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>971</v>
       </c>
@@ -10435,7 +10463,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>971</v>
       </c>
@@ -10446,7 +10474,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>971</v>
       </c>
@@ -10457,7 +10485,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>971</v>
       </c>
@@ -10468,7 +10496,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>971</v>
       </c>
@@ -10479,7 +10507,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>971</v>
       </c>
@@ -10490,7 +10518,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>971</v>
       </c>
@@ -10501,7 +10529,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>971</v>
       </c>
@@ -10512,7 +10540,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>971</v>
       </c>
@@ -10523,7 +10551,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>971</v>
       </c>
@@ -10534,7 +10562,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>971</v>
       </c>
@@ -10545,7 +10573,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>971</v>
       </c>
@@ -10556,7 +10584,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1024</v>
       </c>
@@ -10567,7 +10595,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1024</v>
       </c>
@@ -10578,7 +10606,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1029</v>
       </c>
@@ -10589,7 +10617,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1031</v>
       </c>
@@ -10600,7 +10628,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1031</v>
       </c>
@@ -10611,7 +10639,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1031</v>
       </c>
@@ -10622,7 +10650,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1031</v>
       </c>
@@ -10633,7 +10661,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1031</v>
       </c>
@@ -10644,7 +10672,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1031</v>
       </c>
@@ -10655,7 +10683,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1031</v>
       </c>
@@ -10666,7 +10694,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1031</v>
       </c>
@@ -10677,7 +10705,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1031</v>
       </c>
@@ -10688,7 +10716,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1031</v>
       </c>
@@ -10699,7 +10727,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1031</v>
       </c>
@@ -10710,7 +10738,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1031</v>
       </c>
@@ -10721,7 +10749,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1031</v>
       </c>
@@ -10732,7 +10760,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1031</v>
       </c>
@@ -10743,7 +10771,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1031</v>
       </c>
@@ -10754,7 +10782,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1031</v>
       </c>
@@ -10765,7 +10793,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1031</v>
       </c>
@@ -10776,7 +10804,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1031</v>
       </c>
@@ -10787,7 +10815,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1031</v>
       </c>
@@ -10798,7 +10826,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1031</v>
       </c>
@@ -10809,7 +10837,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1031</v>
       </c>
@@ -10820,7 +10848,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1031</v>
       </c>
@@ -10831,7 +10859,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1031</v>
       </c>
@@ -10842,7 +10870,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1031</v>
       </c>
@@ -10853,7 +10881,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1031</v>
       </c>
@@ -10864,7 +10892,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1031</v>
       </c>
@@ -10875,7 +10903,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1031</v>
       </c>
@@ -10886,7 +10914,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1031</v>
       </c>
@@ -10897,7 +10925,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1031</v>
       </c>
@@ -10908,7 +10936,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1031</v>
       </c>
@@ -10919,7 +10947,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1031</v>
       </c>
@@ -10930,7 +10958,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1031</v>
       </c>
@@ -10941,7 +10969,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1031</v>
       </c>
@@ -10952,7 +10980,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1031</v>
       </c>
@@ -10963,7 +10991,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1031</v>
       </c>
@@ -10974,7 +11002,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1098</v>
       </c>
@@ -10985,7 +11013,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1098</v>
       </c>
@@ -10996,7 +11024,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1098</v>
       </c>
@@ -11007,7 +11035,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1098</v>
       </c>
@@ -11018,7 +11046,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1098</v>
       </c>
@@ -11029,7 +11057,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1098</v>
       </c>
@@ -11040,7 +11068,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1098</v>
       </c>
@@ -11051,7 +11079,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1098</v>
       </c>
@@ -11062,7 +11090,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1098</v>
       </c>
@@ -11073,7 +11101,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1098</v>
       </c>
@@ -11084,7 +11112,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1098</v>
       </c>
@@ -11095,7 +11123,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1098</v>
       </c>
@@ -11106,7 +11134,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1098</v>
       </c>
@@ -11117,7 +11145,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1098</v>
       </c>
@@ -11128,7 +11156,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1098</v>
       </c>
@@ -11139,7 +11167,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1098</v>
       </c>
@@ -11150,7 +11178,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1098</v>
       </c>
@@ -11161,7 +11189,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1098</v>
       </c>
@@ -11172,7 +11200,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1098</v>
       </c>
@@ -11183,7 +11211,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1098</v>
       </c>
@@ -11194,7 +11222,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1098</v>
       </c>
@@ -11205,7 +11233,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1098</v>
       </c>
@@ -11216,7 +11244,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1098</v>
       </c>
@@ -11227,7 +11255,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1143</v>
       </c>
@@ -11238,7 +11266,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1143</v>
       </c>
@@ -11249,7 +11277,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1143</v>
       </c>
@@ -11260,7 +11288,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1143</v>
       </c>
@@ -11271,7 +11299,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1143</v>
       </c>
@@ -11282,7 +11310,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1143</v>
       </c>
@@ -11293,7 +11321,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1143</v>
       </c>
@@ -11304,7 +11332,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1143</v>
       </c>
@@ -11315,7 +11343,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1143</v>
       </c>
@@ -11326,7 +11354,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1143</v>
       </c>
@@ -11337,7 +11365,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1143</v>
       </c>
@@ -11348,7 +11376,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1143</v>
       </c>
@@ -11359,7 +11387,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1143</v>
       </c>
@@ -11370,7 +11398,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1143</v>
       </c>
@@ -11381,7 +11409,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1143</v>
       </c>
@@ -11392,7 +11420,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1143</v>
       </c>
@@ -11403,7 +11431,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1143</v>
       </c>
@@ -11414,7 +11442,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1143</v>
       </c>
@@ -11425,7 +11453,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1143</v>
       </c>
@@ -11436,7 +11464,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1143</v>
       </c>
@@ -11447,7 +11475,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1143</v>
       </c>
@@ -11458,7 +11486,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1143</v>
       </c>
@@ -11469,7 +11497,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1143</v>
       </c>
@@ -11480,7 +11508,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1143</v>
       </c>
@@ -11491,7 +11519,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1143</v>
       </c>
@@ -11502,7 +11530,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1143</v>
       </c>
@@ -11513,7 +11541,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1143</v>
       </c>
@@ -11524,7 +11552,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1143</v>
       </c>
@@ -11535,7 +11563,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1143</v>
       </c>
@@ -11546,7 +11574,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1143</v>
       </c>
@@ -11557,7 +11585,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1201</v>
       </c>
@@ -11568,7 +11596,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1201</v>
       </c>
@@ -11579,7 +11607,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1206</v>
       </c>
@@ -11590,7 +11618,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1208</v>
       </c>
@@ -11601,7 +11629,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1208</v>
       </c>
@@ -11612,7 +11640,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1208</v>
       </c>
@@ -11623,7 +11651,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1208</v>
       </c>
@@ -11634,7 +11662,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1208</v>
       </c>
@@ -11645,7 +11673,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1208</v>
       </c>
@@ -11656,7 +11684,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1208</v>
       </c>
@@ -11667,7 +11695,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1208</v>
       </c>
@@ -11678,7 +11706,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1208</v>
       </c>
@@ -11689,7 +11717,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1208</v>
       </c>
@@ -11700,7 +11728,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1208</v>
       </c>
@@ -11711,7 +11739,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1208</v>
       </c>
@@ -11722,7 +11750,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1208</v>
       </c>
@@ -11733,7 +11761,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1208</v>
       </c>
@@ -11744,7 +11772,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1237</v>
       </c>
@@ -11755,7 +11783,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1237</v>
       </c>
@@ -11766,7 +11794,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1237</v>
       </c>
@@ -11777,7 +11805,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1237</v>
       </c>
@@ -11788,7 +11816,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1237</v>
       </c>
@@ -11799,7 +11827,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1237</v>
       </c>
@@ -11810,7 +11838,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1237</v>
       </c>
@@ -11821,7 +11849,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1237</v>
       </c>
@@ -11832,7 +11860,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1237</v>
       </c>
@@ -11843,7 +11871,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1237</v>
       </c>
@@ -11854,7 +11882,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1237</v>
       </c>
@@ -11865,7 +11893,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1237</v>
       </c>
@@ -11876,7 +11904,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1237</v>
       </c>
@@ -11887,7 +11915,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1237</v>
       </c>
@@ -11898,7 +11926,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1237</v>
       </c>
@@ -11909,7 +11937,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1237</v>
       </c>
@@ -11920,7 +11948,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1237</v>
       </c>
@@ -11931,7 +11959,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1237</v>
       </c>
@@ -11942,7 +11970,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1237</v>
       </c>
@@ -11953,7 +11981,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1237</v>
       </c>
@@ -11964,7 +11992,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1237</v>
       </c>
@@ -11975,7 +12003,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1237</v>
       </c>
@@ -11986,7 +12014,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1237</v>
       </c>
@@ -11997,7 +12025,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1237</v>
       </c>
@@ -12008,7 +12036,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1237</v>
       </c>
@@ -12019,7 +12047,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1237</v>
       </c>
@@ -12030,7 +12058,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1237</v>
       </c>
@@ -12041,7 +12069,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1237</v>
       </c>
@@ -12052,7 +12080,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1237</v>
       </c>
@@ -12063,7 +12091,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1237</v>
       </c>
@@ -12074,7 +12102,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1237</v>
       </c>
@@ -12085,7 +12113,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1237</v>
       </c>
@@ -12096,7 +12124,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1301</v>
       </c>
@@ -12107,7 +12135,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1301</v>
       </c>
@@ -12118,7 +12146,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1301</v>
       </c>
@@ -12129,7 +12157,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1301</v>
       </c>
@@ -12140,7 +12168,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1309</v>
       </c>
@@ -12151,7 +12179,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1309</v>
       </c>
@@ -12162,7 +12190,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1309</v>
       </c>
@@ -12179,16 +12207,354 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659752B2-EC32-4E9A-A211-175F3CF07DC6}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43102</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43103</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43104</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43105</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43106</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43107</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43108</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43109</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43110</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6E5B64-4059-7440-8905-7330F8839E9E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1316</v>
       </c>

--- a/tests/sales.xlsx
+++ b/tests/sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\site\gramener.com\viz\async-gramex\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948605C7-75F2-4DE7-A076-8D7742DEEC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B960B43A-7FA7-4EEC-906F-DBE12E69798F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EE3D399-FAD5-3F44-9EB5-0B167948DCE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6EE3D399-FAD5-3F44-9EB5-0B167948DCE0}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1317">
   <si>
     <t>देश</t>
   </si>
@@ -4115,6 +4115,20 @@
     <tableColumn id="1" xr3:uid="{A5F73EF8-4814-419F-8434-EF234D1DE6CC}" name="State"/>
     <tableColumn id="2" xr3:uid="{7F6E1914-BFE5-4E80-BE05-DD65E9A997D1}" name="District"/>
     <tableColumn id="3" xr3:uid="{A74C1237-C79F-42E2-B108-485614EAF929}" name="DistrictCaps"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D997A2B0-9478-46AF-8A22-AF84E153EAE3}" name="MainTable" displayName="MainTable" ref="H1:L25" totalsRowShown="0">
+  <autoFilter ref="H1:L25" xr:uid="{2BBE5A03-AA86-49B4-8A30-3A3BBB0BD567}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{456B5CDA-DAA2-41C9-B7AA-AF5D6422D118}" name="देश"/>
+    <tableColumn id="2" xr3:uid="{48F64B5B-1A57-48CA-85CA-22B386CC0DEA}" name="city"/>
+    <tableColumn id="3" xr3:uid="{1B83E8C8-E8B0-4F35-8A50-11051B4A6863}" name="product"/>
+    <tableColumn id="4" xr3:uid="{DECD69B3-74B4-4822-886E-647BC83DE5FD}" name="sales"/>
+    <tableColumn id="5" xr3:uid="{E619E771-82DD-44E5-8E67-0AF40B87A994}" name="growth"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4419,7 +4433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5832FD-D67F-1D4C-95D0-0EB623A26DB3}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12208,17 +12224,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659752B2-EC32-4E9A-A211-175F3CF07DC6}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -12234,8 +12251,23 @@
       <c r="F1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43101</v>
       </c>
@@ -12251,8 +12283,23 @@
       <c r="F2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>866.1</v>
+      </c>
+      <c r="L2">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43102</v>
       </c>
@@ -12268,8 +12315,23 @@
       <c r="F3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>26.4</v>
+      </c>
+      <c r="L3">
+        <v>-0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43103</v>
       </c>
@@ -12285,8 +12347,23 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="L4">
+        <v>-0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43104</v>
       </c>
@@ -12302,8 +12379,23 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>513.70000000000005</v>
+      </c>
+      <c r="L5">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43105</v>
       </c>
@@ -12319,8 +12411,23 @@
       <c r="F6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>41.9</v>
+      </c>
+      <c r="L6">
+        <v>-0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43106</v>
       </c>
@@ -12336,8 +12443,23 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>52.2</v>
+      </c>
+      <c r="L7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43107</v>
       </c>
@@ -12353,8 +12475,23 @@
       <c r="F8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>17.8</v>
+      </c>
+      <c r="L8">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43108</v>
       </c>
@@ -12370,8 +12507,23 @@
       <c r="F9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>178.9</v>
+      </c>
+      <c r="L9">
+        <v>-0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43109</v>
       </c>
@@ -12387,8 +12539,23 @@
       <c r="F10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>217.4</v>
+      </c>
+      <c r="L10">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43110</v>
       </c>
@@ -12404,8 +12571,17 @@
       <c r="F11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>21</v>
       </c>
@@ -12415,8 +12591,23 @@
       <c r="F12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>94.4</v>
+      </c>
+      <c r="L12">
+        <v>-0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>21</v>
       </c>
@@ -12426,8 +12617,23 @@
       <c r="F13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>72.8</v>
+      </c>
+      <c r="L13">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>21</v>
       </c>
@@ -12437,8 +12643,23 @@
       <c r="F14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>671</v>
+      </c>
+      <c r="L14">
+        <v>-1.4E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>21</v>
       </c>
@@ -12448,8 +12669,23 @@
       <c r="F15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>560.20000000000005</v>
+      </c>
+      <c r="L15">
+        <v>-0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>21</v>
       </c>
@@ -12459,8 +12695,23 @@
       <c r="F16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>237.9</v>
+      </c>
+      <c r="L16">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>21</v>
       </c>
@@ -12470,8 +12721,23 @@
       <c r="F17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>719</v>
+      </c>
+      <c r="L17">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>21</v>
       </c>
@@ -12481,8 +12747,23 @@
       <c r="F18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>18.3</v>
+      </c>
+      <c r="L18">
+        <v>-0.154</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>21</v>
       </c>
@@ -12492,8 +12773,23 @@
       <c r="F19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>41.6</v>
+      </c>
+      <c r="L19">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -12503,8 +12799,23 @@
       <c r="F20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>32.4</v>
+      </c>
+      <c r="L20">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>21</v>
       </c>
@@ -12514,8 +12825,23 @@
       <c r="F21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>12.5</v>
+      </c>
+      <c r="L21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>21</v>
       </c>
@@ -12525,8 +12851,23 @@
       <c r="F22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>1352.4</v>
+      </c>
+      <c r="L22">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>21</v>
       </c>
@@ -12536,12 +12877,56 @@
       <c r="F23" t="s">
         <v>65</v>
       </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>190.2</v>
+      </c>
+      <c r="L23">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="L24">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/tests/sales.xlsx
+++ b/tests/sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\site\gramener.com\viz\async-gramex\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\site\gramener.com\viz\async-gramex\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B960B43A-7FA7-4EEC-906F-DBE12E69798F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A18EA7-C0C5-42F0-83D7-9D4E1BF929EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6EE3D399-FAD5-3F44-9EB5-0B167948DCE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EE3D399-FAD5-3F44-9EB5-0B167948DCE0}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="census" sheetId="3" r:id="rId3"/>
     <sheet name="table" sheetId="5" r:id="rId4"/>
     <sheet name="dummy" sheetId="4" r:id="rId5"/>
+    <sheet name="cities" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="census" localSheetId="2">census!$A$1:$C$641</definedName>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1321">
   <si>
     <t>देश</t>
   </si>
@@ -4026,6 +4027,18 @@
   </si>
   <si>
     <t>This is a help sheet</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
 </sst>
 </file>
@@ -4433,9 +4446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5832FD-D67F-1D4C-95D0-0EB623A26DB3}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12226,7 +12237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659752B2-EC32-4E9A-A211-175F3CF07DC6}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12947,4 +12960,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933B7139-EFBD-4D13-AF10-856D11616FDD}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/sales.xlsx
+++ b/tests/sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\site\gramener.com\viz\async-gramex\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\site\gramener.com\viz\async-gramex\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B960B43A-7FA7-4EEC-906F-DBE12E69798F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4BAC76-22CE-477D-BACB-5FB8165625D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6EE3D399-FAD5-3F44-9EB5-0B167948DCE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6EE3D399-FAD5-3F44-9EB5-0B167948DCE0}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="1" r:id="rId1"/>
@@ -4032,10 +4032,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4058,14 +4066,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -4433,9 +4444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5832FD-D67F-1D4C-95D0-0EB623A26DB3}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12277,13 +12286,13 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
@@ -12309,13 +12318,13 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
@@ -12341,13 +12350,13 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" t="s">
@@ -12373,13 +12382,13 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" t="s">
@@ -12405,13 +12414,13 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
@@ -12437,13 +12446,13 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I7" t="s">
@@ -12469,13 +12478,13 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I8" t="s">
@@ -12501,13 +12510,13 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I9" t="s">
@@ -12533,13 +12542,13 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
@@ -12565,13 +12574,13 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I11" t="s">
@@ -12585,13 +12594,13 @@
       <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I12" t="s">
@@ -12611,13 +12620,13 @@
       <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I13" t="s">
@@ -12637,13 +12646,13 @@
       <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I14" t="s">
@@ -12663,13 +12672,13 @@
       <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>49</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I15" t="s">
@@ -12689,13 +12698,13 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>51</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I16" t="s">
@@ -12715,13 +12724,13 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I17" t="s">
@@ -12741,13 +12750,13 @@
       <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I18" t="s">
@@ -12767,13 +12776,13 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I19" t="s">
@@ -12793,13 +12802,13 @@
       <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="s">
@@ -12819,13 +12828,13 @@
       <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I21" t="s">
@@ -12845,13 +12854,13 @@
       <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F22" t="s">
         <v>63</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I22" t="s">
@@ -12871,13 +12880,13 @@
       <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I23" t="s">
@@ -12894,7 +12903,7 @@
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I24" t="s">
@@ -12911,7 +12920,7 @@
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I25" t="s">
@@ -12922,11 +12931,43 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{736F4C30-9736-4CFB-ADF5-BC9C2F0A5462}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{BA2419C9-95D6-4BD9-ADD3-F850833ECDA4}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{02C5DA5E-D3B4-4BBE-9F8A-3A9FD0A3D314}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{ECCADCD5-3D5B-4064-BF11-8CD8260C5034}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{B5AD5348-05B6-4250-A4FD-7132CFA09DBA}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{1680D33A-BB13-455F-84EE-44DE8B597F75}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{BDD80B2B-5344-444A-A3F3-92EC5E666528}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{3E5C669B-B6C2-4551-BB59-A3EB69626396}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{BF954CAA-C8FD-466A-AB65-CE12BFA69801}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{2466AE46-3740-4DEA-B26D-662C5B8D3B9F}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{3AFDE039-BA59-4CE1-83ED-78416F8E971C}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{5EA1A8F0-8BDA-4965-B5A2-87FC44B079E1}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{54E7C3A8-DB96-49CD-BE9C-4F605FC35322}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{E41D960F-8E9C-4213-B172-1E1ABE16C4E0}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{022A3CD0-8117-4C79-95D7-420290D0B475}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{3BC42B8E-5E51-4E70-9D93-5D5952BB72A4}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{49E61EF4-FB49-45FA-A587-F0789C9A4116}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{2908BA46-F66E-4147-8A21-D91E278F9470}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{A40B81B5-D170-459F-BD06-4736300B8563}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{ECB8EF1C-E9F7-463F-868F-351EA90A1B1F}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{7EBE3A33-C150-4917-97D3-304FDAE7222B}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{DA59273D-6FF9-4861-A5DD-E2B3CCD46CF5}"/>
+    <hyperlink ref="F2" r:id="rId23" xr:uid="{4A7A5DEA-D7E4-4F04-BEE6-E5439B65F815}"/>
+    <hyperlink ref="F3" r:id="rId24" xr:uid="{EB2E96DF-E1EE-415F-AF83-01581AF114D6}"/>
+    <hyperlink ref="H2" r:id="rId25" xr:uid="{973E5923-1197-49F8-8837-4E47E7F774B2}"/>
+    <hyperlink ref="H3:H13" r:id="rId26" display="भारत" xr:uid="{21CF1BB5-1759-4D9C-9E12-FC9B6EF20337}"/>
+    <hyperlink ref="H14" r:id="rId27" xr:uid="{A3AAB5CB-360A-4877-AB1B-FE23CBDAAC76}"/>
+    <hyperlink ref="H15:H17" r:id="rId28" display="Singapore" xr:uid="{F4F13671-BCDD-4054-89F8-2FC322D3549B}"/>
+    <hyperlink ref="H18" r:id="rId29" xr:uid="{48A08E36-25FB-45AF-8613-CB8A0BD468DB}"/>
+    <hyperlink ref="H19:H25" r:id="rId30" display="USA" xr:uid="{38486A27-886B-4407-A152-6B8625EB5DC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
